--- a/output/date/2021-12-19/2021-12-19_테이블.xlsx
+++ b/output/date/2021-12-19/2021-12-19_테이블.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>플레르가구 햄프 노트북 미니 간이 원목 소파 사이드 테이블</t>
+          <t>라운드비 원형 유리 사이드테이블 높이조절</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20191343309</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29249349281</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2019134/20191343309.20190712145857.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2924934/29249349281.20211123024745.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29800</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -468,11 +468,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>플레르가구</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
@@ -501,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>라운드비 원형 유리 사이드테이블 높이조절</t>
+          <t>완소간소 트랜스포머 거실 리프트 테이블 리프트업 쇼파테이블 800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29249349281</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24369006417</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2924934/29249349281.20211123024745.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436900/24369006417.20210127093712.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80000</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -530,8 +526,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>완소간소</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>완소간소</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -549,7 +553,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -559,22 +563,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>완소간소 트랜스포머 거실 리프트 테이블 리프트업 쇼파테이블 800</t>
+          <t>바퀴달린 이동식 간이 쇼파 테이블 미니 침대용 책상 침대 위 높낮이조절 보조 협탁 원목</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24369006417</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28644246706</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436900/24369006417.20210127093712.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2864424/28644246706.20211217023722.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -588,16 +592,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>완소간소</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>완소간소</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -615,7 +611,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -625,22 +621,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>바퀴달린 이동식 간이 쇼파 테이블 미니 침대용 책상 침대 위 높낮이조절 보조 협탁 원목</t>
+          <t>까르엠가구 대리석 골드 1200 스퀘어다리 소파 테이블</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28644246706</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27864335522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2864424/28644246706.20211217023722.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786433/27864335522.20210706005732.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>194000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -654,8 +650,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>까르엠가구</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>까르엠</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -673,7 +677,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -683,22 +687,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 1200 스퀘어다리 소파 테이블</t>
+          <t>사사 자이언트 리프트테이블</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27864335522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21149879734</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786433/27864335522.20210706005732.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2114987/21149879734.20191024123330.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>50920</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -714,12 +718,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>사사</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>데코라인</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -749,22 +753,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사사 자이언트 리프트테이블</t>
+          <t>플레르가구 햄프 노트북 미니 간이 원목 소파 사이드 테이블</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21149879734</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20191343309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2114987/21149879734.20191024123330.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2019134/20191343309.20190712145857.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50920</t>
+          <t>29800</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -780,14 +784,10 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>사사</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>데코라인</t>
-        </is>
-      </c>
+          <t>플레르가구</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -805,7 +805,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -1253,22 +1253,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>나나트리 피코 슬림 디자인 커피숍 쇼파 간이 사이드 테이블</t>
+          <t>OMT 이동식 사이드 테이블 거실 소파 침대 ONA-306</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27465778490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27429713314</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2746577/27465778490.20211006012110.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2742971/27429713314.20210604020720.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>17880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>나나트리</t>
+          <t>OMT</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1315,22 +1315,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>일룸 델타 리프트업 소파 테이블</t>
+          <t>레트로하우스 비아 원목 접이식 거실테이블 좌식 소파 테이블</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16567064809</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25543286619</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1656706/16567064809.20200903111052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2554328/25543286619.20211117033107.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>43900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OMT 이동식 사이드 테이블 거실 소파 침대 ONA-306</t>
+          <t>노르웨이숲 원목 거실테이블 900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27429713314</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27965376522</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2742971/27429713314.20210604020720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2796537/27965376522.20210712115706.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17880</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1412,10 +1412,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>OMT</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>노르웨이숲</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>노르웨이숲</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1433,7 +1437,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -1443,22 +1447,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>레트로하우스 비아 원목 접이식 거실테이블 좌식 소파 테이블</t>
+          <t>완소간소 트랜스포머 거실 리프트 테이블 1200</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25543286619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28094722522</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2554328/25543286619.20211117033107.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2809472/28094722522.20210721150201.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>43900</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1474,12 +1478,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>완소간소</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>완소간소</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1509,22 +1513,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>노르웨이숲 원목 거실테이블 900</t>
+          <t>노르웨이숲 뉴송 우드슬랩 식탁 테이블 1600 스틸다리 타입A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27965376522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28873049587</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2796537/27965376522.20210712115706.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2887304/28873049587.20211018093458.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1555,17 +1559,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -1575,22 +1579,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>완소간소 트랜스포머 거실 리프트 테이블 1200</t>
+          <t>까르엠가구 대리석 골드 600 + 800 소파 테이블</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28094722522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27864333522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2809472/28094722522.20210721150201.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786433/27864333522.20210706005008.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>294000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1606,12 +1610,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>완소간소</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>완소간소</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1641,22 +1645,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 600 + 800 소파 테이블</t>
+          <t>나나트리 피코 슬림 디자인 커피숍 쇼파 간이 사이드 테이블</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27864333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27465778490</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786433/27864333522.20210706005008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2746577/27465778490.20211006012110.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>294000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1672,14 +1676,10 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>까르엠</t>
-        </is>
-      </c>
+          <t>나나트리</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>노르웨이숲 뉴송 우드슬랩 식탁 테이블 1600 스틸다리 타입A</t>
+          <t>이동식 사이드테이블 보조책상 바퀴 베드 쇼파 침대 높이</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28873049587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955665151</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2887304/28873049587.20211018093458.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695566/26955665151.20211217022331.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>16360</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1736,16 +1736,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>노르웨이숲</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>노르웨이숲</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1753,17 +1745,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -1773,22 +1765,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>이동식 사이드테이블 보조책상 바퀴 베드 쇼파 침대 높이</t>
+          <t>일룸 델타 리프트업 소파 테이블</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955665151</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16567064809</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695566/26955665151.20211217022331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1656706/16567064809.20200903111052.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16390</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1802,8 +1794,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>일룸</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>일룸</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>레트로하우스 좁고긴 베란다 창가 원목 사이드 슬림테이블 800</t>
+          <t>이동식 사이드테이블 간이 보조 책상 높이조절 인강</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28891579286</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27205427730</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2889157/28891579286.20210917221016.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2720542/27205427730.20211211043557.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75000</t>
+          <t>22400</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1860,16 +1860,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1897,22 +1889,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이동식 사이드테이블 간이 보조 책상 높이조절 인강</t>
+          <t>사이드테이블 소</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27205427730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11865622431</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2720542/27205427730.20211211043557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1186562/11865622431.20180803153206.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>22400</t>
+          <t>11810</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1927,7 +1919,11 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>가구느낌</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1955,22 +1951,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>사이드테이블 소</t>
+          <t>제이엘 뉴송 우드슬랩 카페 테이블</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11865622431</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22181021596</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1186562/11865622431.20180803153206.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2218102/22181021596.20200314021904.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11810</t>
+          <t>115000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1985,11 +1981,7 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>가구느낌</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1997,17 +1989,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2024,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93950</t>
+          <t>93890</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2075,22 +2067,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>제이엘 뉴송 우드슬랩 카페 테이블</t>
+          <t>까르엠가구 대리석 골드 1200 엑스다리 소파 테이블</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22181021596</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27864334522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2218102/22181021596.20200314021904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786433/27864334522.20210706005511.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>115000</t>
+          <t>184000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2104,8 +2096,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>까르엠가구</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>까르엠</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -2133,22 +2133,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 1200 엑스다리 소파 테이블</t>
+          <t>침대 소파 철제 미니 테이블 대리석 2인 티 테이블</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27864334522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26872776527</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786433/27864334522.20210706005511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687277/26872776527.20211116052429.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>184000</t>
+          <t>20800</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2162,16 +2162,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>까르엠가구</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>까르엠</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2189,7 +2181,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -2199,22 +2191,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>침대 소파 철제 미니 테이블 대리석 2인 티 테이블</t>
+          <t>지이라이프 접이식 온열 테이블 코타츠</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26872776527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28608395869</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687277/26872776527.20211116052429.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860839/28608395869.20211019112642.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20800</t>
+          <t>92990</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2228,8 +2220,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>지이라이프</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>지이라이프</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -2257,22 +2257,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>지이라이프 접이식 온열 테이블 코타츠</t>
+          <t>통원목 우드슬랩 카페 테이블</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28608395869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26663645990</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860839/28608395869.20211019112642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2666364/26663645990.20210406203759.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>92990</t>
+          <t>380000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2286,16 +2286,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>지이라이프</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>지이라이프</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2303,17 +2295,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -2323,22 +2315,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>통원목 우드슬랩 카페 테이블</t>
+          <t>홀로그램테이블 레인보우테이블 유리 아크릴테이블</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26663645990</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28592970356</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2666364/26663645990.20210406203759.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2859297/28592970356.20210826230528.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>380000</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2361,17 +2353,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -2381,22 +2373,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>홀로그램테이블 레인보우테이블 유리 아크릴테이블</t>
+          <t>레트로하우스 좁고긴 베란다 창가 원목 사이드 슬림테이블 800</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28592970356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28891579286</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859297/28592970356.20210826230528.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2889157/28891579286.20210917221016.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>75000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2410,8 +2402,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -2675,22 +2675,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>창가 벽 슬림 베란다 원목 좁고 긴 폭좁은 침대 간이 틈새 보조 사이드 테이블 책상</t>
+          <t>레트로하우스 HPM 크리미 반타원형 원목테이블 1200 내추럴 화이트식탁</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334315803</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24543313510</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733431/27334315803.20210527214842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2454331/24543313510.20210712122541.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14000</t>
+          <t>96900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2704,8 +2704,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2713,17 +2721,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -2791,22 +2799,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>레트로하우스 HPM 크리미 반타원형 원목테이블 1200 내추럴 화이트식탁</t>
+          <t>창가 벽 슬림 베란다 원목 좁고 긴 폭좁은 침대 간이 틈새 보조 사이드 테이블 책상</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24543313510</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334315803</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2454331/24543313510.20210712122541.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733431/27334315803.20210527214842.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>96900</t>
+          <t>14000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2820,16 +2828,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -2857,22 +2857,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>이동식 바퀴달린 침대 베드 테이블 책상 위 옆 침대용 높낮이조절 쇼파 보조</t>
+          <t>보루네오 통원목 뉴송우드슬랩 원목카페테이블 식탁</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27160794889</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29496889395</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2716079/27160794889.20211201052640.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2949688/29496889395.20211103044406.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>67900</t>
+          <t>398000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2886,7 +2886,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>보루네오</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2895,17 +2899,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -2915,22 +2919,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>보루네오 통원목 뉴송우드슬랩 원목카페테이블 식탁</t>
+          <t>이동식 바퀴달린 침대 베드 테이블 책상 위 옆 침대용 높낮이조절 쇼파 보조</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29496889395</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27160794889</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2949688/29496889395.20211103044406.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2716079/27160794889.20211201052640.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>398000</t>
+          <t>67900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2944,11 +2948,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>보루네오</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2957,17 +2957,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -2977,22 +2977,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>한샘 피코 리프트업 소파테이블 플랩도어형</t>
+          <t>이케아 MELLTORP 멜토르프 4인용 테이블 125x75</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11748758340</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24933432932</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1174875/11748758340.20210223191508.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2493343/24933432932.20201121224315.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>256610</t>
+          <t>49890</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3023,17 +3023,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -3043,22 +3043,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이케아 MELLTORP 멜토르프 4인용 테이블 125x75</t>
+          <t>스칸디무드 쿠스토 이동식 확장형 접이식 식탁 테이블</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24933432932</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22708680049</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2493343/24933432932.20201121224315.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2270868/22708680049.20200430163820.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>49890</t>
+          <t>128950</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3072,16 +3072,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>이케아</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3109,22 +3101,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>스칸디무드 쿠스토 이동식 확장형 접이식 식탁 테이블</t>
+          <t>한샘 피코 리프트업 소파테이블 플랩도어형</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22708680049</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11748758340</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2270868/22708680049.20200430163820.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1174875/11748758340.20210223191508.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>128950</t>
+          <t>256610</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3138,8 +3130,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -3427,22 +3427,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>라로퍼니처 클로버 원목 사이드 테이블 600 800 소파 침대 발받침 이동식 보조 탁자 미니 협탁</t>
+          <t>가구느낌 베디테이블 침대 간이 이동식 배드</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26071464680</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26747125193</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2607146/26071464680.20210604150433.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674712/26747125193.20210413185111.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>45470</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3458,12 +3458,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>라로퍼니처</t>
+          <t>가구느낌</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>라로퍼니처</t>
+          <t>가구느낌</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>가구느낌 베디테이블 침대 간이 이동식 배드</t>
+          <t>엘문도 소파사이드테이블 거실 침대 협탁 간이보조</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26747125193</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28533515961</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2674712/26747125193.20210413185111.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2853351/28533515961.20210822214818.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>45470</t>
+          <t>36890</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3590,14 +3590,10 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>가구느낌</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>가구느낌</t>
-        </is>
-      </c>
+          <t>엘문도</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3625,22 +3621,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>엘문도 소파사이드테이블 거실 침대 협탁 간이보조</t>
+          <t>페라모 타워 천연 대리석 로즈골드 소파 거실 테이블 1300</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28533515961</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20207882819</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853351/28533515961.20210822214818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2020788/20207882819.20190715102520.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>36890</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3656,7 +3652,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>엘문도</t>
+          <t>페라모</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -3677,7 +3673,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -3687,22 +3683,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>페라모 타워 천연 대리석 로즈골드 소파 거실 테이블 1300</t>
+          <t>라움 엔젤 화이트 그레이 소파 테이블 타원형 라운드 좌식 거실테이블 티</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20207882819</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19025821406</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2020788/20207882819.20190715102520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1902582/19025821406.20190502134128.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>109740</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3718,7 +3714,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>페라모</t>
+          <t>라움</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -3749,22 +3745,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>헤즈로 레스토 원목 좌탁 거실 소파 테이블 1200</t>
+          <t>루나랩 사이드 테이블 001</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28579722827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27671992586</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857972/28579722827.20210826040008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2767199/27671992586.20210622021608.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3780,7 +3776,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>헤즈로</t>
+          <t>루나랩</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3801,7 +3797,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3807,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>루나랩 사이드 테이블 001</t>
+          <t>라움 퓨어 올화이트 타원형 세라믹테이블 4인 6인식탁</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27671992586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27232450462</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2767199/27671992586.20210622021608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2723245/27232450462.20210521222535.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>360840</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3842,10 +3838,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>루나랩</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>라움</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>라움</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3853,17 +3853,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>라움 퓨어 올화이트 타원형 세라믹테이블 4인 6인식탁</t>
+          <t>오노홈 루니 타원형테이블 라미네이트 라운드 6인</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27232450462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29585204095</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2723245/27232450462.20210521222535.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958520/29585204095.20211124032642.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>360840</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3970,14 +3970,10 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>라움</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>라움</t>
-        </is>
-      </c>
+          <t>오노홈</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4071,22 +4067,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>오노홈 루니 타원형테이블 라미네이트 라운드 6인</t>
+          <t>마켓비 NETUD 원목수납테이블 98x50 아카시아</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29585204095</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29566762021</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958520/29585204095.20211124032642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2956676/29566762021.20211106204120.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>390000</t>
+          <t>50900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4102,10 +4098,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>오노홈</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>마켓비</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>마켓비</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4113,17 +4113,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -4195,22 +4195,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>폭좁은 틈새 긴테이블 원목 소파 침대 뒤 테이블 책장 선반</t>
+          <t>메종드에디션 레인트리 통원목 우드슬랩 4 6 8인용식탁 스타벅스 테이블 1800</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25086695139</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28098294164</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2508669/25086695139.20201203220932.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2809829/28098294164.20210721233656.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4224,7 +4224,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>메종드에디션</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -4233,17 +4237,17 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4257,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>마켓비 NETUD 원목수납테이블 98x50 아카시아</t>
+          <t>폭좁은 틈새 긴테이블 원목 소파 침대 뒤 테이블 책장 선반</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29566762021</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25086695139</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2956676/29566762021.20211106204120.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2508669/25086695139.20201203220932.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50900</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4282,16 +4286,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>마켓비</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4319,36 +4315,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>아이홉 접이식 좌식테이블 원목 1200</t>
+          <t>국산 접이식 좌식 테이블 거실 소파 커피 티 좌탁 타원형 마블 인테리어 밥상 원룸 식탁</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323521515</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82619576521</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832352/18323521515.20190326095936.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8261957/82619576521.3.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>허니센스</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>허니센스</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -4377,22 +4377,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>메종드에디션 레인트리 통원목 우드슬랩 4 6 8인용식탁 스타벅스 테이블 1800</t>
+          <t>이즈네이처 원목 사이드테이블 수납공간 거실테이블</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28098294164</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27970926579</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2809829/28098294164.20210721233656.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2797092/27970926579.20210713010603.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4408,10 +4408,14 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>메종드에디션</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>이즈네이처</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>이즈네이처</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4419,17 +4423,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -4439,22 +4443,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>이즈네이처 원목 사이드테이블 수납공간 거실테이블</t>
+          <t>까사미아 onion 베이 소파 사이드테이블</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27970926579</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22873303730</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2797092/27970926579.20210713010603.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2287330/22873303730.20200516024317.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>36800</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4470,12 +4474,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>이즈네이처</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>이즈네이처</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4505,41 +4509,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>국산 접이식 좌식 테이블 거실 소파 커피 티 좌탁 타원형 마블 인테리어 밥상 원룸 식탁</t>
+          <t>일룸 리다 거실테이블</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82619576521</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10872723654</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8261957/82619576521.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1087272/10872723654.20200826161327.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>허니센스</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>허니센스</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>일룸</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>일룸</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4629,22 +4637,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>까사미아 onion 베이 소파 사이드테이블</t>
+          <t>e스마트 스틸 사각 거실 주방 카페 식탁 테이블 4인</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22873303730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30061165651</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2287330/22873303730.20200516024317.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3006116/30061165651.20211218031548.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>36820</t>
+          <t>128000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4660,12 +4668,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4675,17 +4683,17 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -4695,22 +4703,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>일룸 리다 거실테이블</t>
+          <t>라로퍼니처 클로버 원목 사이드 테이블 600 800 소파 침대 발받침 이동식 보조 탁자 미니 협탁</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10872723654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26071464680</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1087272/10872723654.20200826161327.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2607146/26071464680.20210604150433.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4726,12 +4734,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>라로퍼니처</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>라로퍼니처</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4751,7 +4759,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4769,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>세레스홈 리안 소파 테이블 강화유리 타원형</t>
+          <t>소 라탄 테이블 좌식 미니 원목 원탁 원형 티테이블</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24839041521</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29233816286</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2483904/24839041521.20201114192631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2923381/29233816286.20211217025248.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4790,11 +4798,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>세레스홈</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4823,22 +4827,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>e스마트 스틸 사각 거실 주방 카페 식탁 테이블 4인</t>
+          <t>세레스홈 리안 소파 테이블 강화유리 타원형</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30061165651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24839041521</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3006116/30061165651.20211218031548.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2483904/24839041521.20201114192631.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>128000</t>
+          <t>268000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4854,14 +4858,10 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+          <t>세레스홈</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4869,17 +4869,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -4889,22 +4889,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>소 라탄 테이블 좌식 미니 원목 원탁 원형 티테이블</t>
+          <t>오노홈 루니 4인 6인 테이블 라미네이트 식탁 라운드테이블 화이트식탁</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29233816286</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28607857842</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2923381/29233816286.20211217025248.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860785/28607857842.20210828020629.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>350000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4918,7 +4918,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>오노홈</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -4927,17 +4931,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -5079,22 +5083,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>오노홈 루니 4인 6인 테이블 라미네이트 식탁 라운드테이블 화이트식탁</t>
+          <t>고타츠 일본식 좌식 코다츠 코타츠 난방 이불 테이블</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28607857842</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29035184230</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860785/28607857842.20210828020629.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903518/29035184230.20210930012704.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>350000</t>
+          <t>114000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5108,11 +5112,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>오노홈</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -5121,17 +5121,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -5141,22 +5141,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>고타츠 일본식 좌식 코다츠 코타츠 난방 이불 테이블</t>
+          <t>도베르만 트레이 사이드 테이블 침대 소파 협탁</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29035184230</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27179435726</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903518/29035184230.20210930012704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2717943/27179435726.20211126165935.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>114000</t>
+          <t>81000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -5199,22 +5199,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>일룸 타우 사이드테이블 전면형</t>
+          <t>리바트 무니 리프트업 테이블</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21455287151</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10900324777</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2145528/21455287151.20191205181038.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1090032/10900324777.20200929105530.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>184000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5230,12 +5230,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>리바트</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>현대리바트</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -5265,22 +5265,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>도베르만 트레이 사이드 테이블 침대 소파 협탁</t>
+          <t>한샘 무드 강화유리 소파테이블</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27179435726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11434014025</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2717943/27179435726.20211126165935.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1143401/11434014025.20190720005707.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>81000</t>
+          <t>131280</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5294,7 +5294,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>한샘</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -5313,7 +5317,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -5323,22 +5327,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>리바트 무니 리프트업 테이블</t>
+          <t>헤즈로 레스토 원목 좌탁 거실 소파 테이블 1200</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10900324777</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28579722827</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1090032/10900324777.20200929105530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2857972/28579722827.20210826040008.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>184000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5354,14 +5358,10 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>리바트</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>현대리바트</t>
-        </is>
-      </c>
+          <t>헤즈로</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5389,22 +5389,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한샘 무드 강화유리 소파테이블</t>
+          <t>일룸 타우 사이드테이블 전면형</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11434014025</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21455287151</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1143401/11434014025.20190720005707.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2145528/21455287151.20191205181038.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>131280</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5420,10 +5420,14 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>한샘</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>일룸</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>일룸</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5441,7 +5445,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -5567,22 +5571,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>알렉스 리프트업 소파 거실테이블 ALEX 발리오크</t>
+          <t>아이홉 접이식 좌식테이블 원목 1200</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21261576280</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323521515</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2126157/21261576280.20191109031246.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832352/18323521515.20190326095936.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5687,22 +5691,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>리센트 로베 이동식 확장형 접이식 식탁 테이블</t>
+          <t>알렉스 리프트업 소파 거실테이블 ALEX 발리오크</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25086900012</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21261576280</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2508690/25086900012.20201209161200.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2126157/21261576280.20191109031246.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5716,16 +5720,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>리센트</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>리센트</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5733,17 +5729,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -5753,22 +5749,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>이케아 LACK 사이드 테이블  104.499.09</t>
+          <t>리센트 로베 이동식 확장형 접이식 식탁 테이블</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26888534798</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25086900012</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688853/26888534798.20211012035836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2508690/25086900012.20201209161200.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5784,10 +5780,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>이케아</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>리센트</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>리센트</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5795,17 +5795,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -5939,22 +5939,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>마루엔개비 옛사랑 통원목 좌식테이블 좌탁</t>
+          <t>이케아 LACK 사이드 테이블  104.499.09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22922226523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26888534798</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2292222/22922226523.20200521161731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688853/26888534798.20211012035836.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>153500</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5970,14 +5970,10 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>마루엔개비</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>지비엠</t>
-        </is>
-      </c>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5995,7 +5991,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -6005,22 +6001,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>라움 엔젤 화이트 그레이 소파 테이블 타원형 라운드 좌식 거실테이블 티</t>
+          <t>OMT 이동식 사이드 테이블 책상 노트북 태블릿홈 ONA-64TB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19025821406</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21378974105</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1902582/19025821406.20190502134128.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2137897/21378974105.20191126015936.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>109740</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6036,7 +6032,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>라움</t>
+          <t>OMT</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -6057,7 +6053,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>거실테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -6067,22 +6063,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>이케아 대리석식탁 확장형 인덕션식탁 6인용세라믹식탁 접이식테이블</t>
+          <t>레트로하우스 원형테이블 라떼 고무나무 원목식탁 1000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28863599923</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21419743282</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2886359/28863599923.20211006050311.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2141974/21419743282.20191130153213.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>297650</t>
+          <t>95000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6098,12 +6094,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6133,22 +6129,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>레트로하우스 원형테이블 라떼 고무나무 원목식탁 1000</t>
+          <t>마루엔개비 옛사랑 통원목 좌식테이블 좌탁</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21419743282</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22922226523</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2141974/21419743282.20191130153213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2292222/22922226523.20200521161731.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>95000</t>
+          <t>153500</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6164,12 +6160,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>마루엔개비</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>지비엠</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6179,17 +6175,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>거실테이블</t>
         </is>
       </c>
     </row>
@@ -6199,22 +6195,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>러블 포세린 세라믹 프레임 거실 소파테이블</t>
+          <t>까사미아 헬싱키 티테이블</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29035587165</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7974966884</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903558/29035587165.20210930014630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7974966/7974966884.20140926102925.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>177110</t>
+          <t>251100</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6228,8 +6224,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>까사미아</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>까사미아</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6257,22 +6261,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>까사미아 헬싱키 티테이블</t>
+          <t>지이라이프 에타홈 코타츠 테이블 KOW-80</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7974966884</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29585483455</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7974966/7974966884.20140926102925.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958548/29585483455.20211217122016.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>251100</t>
+          <t>143320</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6288,12 +6292,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>지이라이프</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>까사미아</t>
+          <t>지이라이프</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6323,40 +6327,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>OMT 이동식 사이드 테이블 책상 노트북 태블릿홈 ONA-64TB</t>
+          <t>비셀리움 원형 테이블 화이트 카페 테라스 라운드 스타일 2인 4인 6인 식탁</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21378974105</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82865942145</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2137897/21378974105.20191126015936.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8286594/82865942145.3.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>32500</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>준비GO</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>OMT</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -6365,17 +6365,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
@@ -6451,22 +6451,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>지이라이프 에타홈 코타츠 테이블 KOW-80</t>
+          <t>러블 포세린 세라믹 프레임 거실 소파테이블</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29585483455</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29035587165</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2958548/29585483455.20211217122016.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903558/29035587165.20210930014630.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>143320</t>
+          <t>177110</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6480,16 +6480,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>지이라이프</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>지이라이프</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6575,37 +6567,45 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>비셀리움 원형 테이블 화이트 카페 테라스 라운드 스타일 2인 4인 6인 식탁</t>
+          <t>소프시스 사이드테이블 435</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82865942145</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7069074405</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8286594/82865942145.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7069074/7069074405.20150729115130.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>32500</t>
+          <t>30900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>준비GO</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>소프시스</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>소프시스</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6613,17 +6613,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>주방가구</t>
+          <t>거실가구</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>식탁/의자</t>
+          <t>테이블</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>식탁테이블</t>
+          <t>사이드테이블</t>
         </is>
       </c>
     </row>
@@ -6633,22 +6633,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>필웰 무노 베드테이블 DVX TB8648</t>
+          <t>베스트리빙 메드퍼드 접이식 2인 4인 6인 확장형 식탁테이블</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22369083237</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23100208785</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2236908/22369083237.20200402154631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2310020/23100208785.20211205041259.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>44620</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6664,10 +6664,14 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>필웰</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>베스트리빙</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>베스트리빙</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6675,17 +6679,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>거실가구</t>
+          <t>주방가구</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>테이블</t>
+          <t>식탁/의자</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>사이드테이블</t>
+          <t>식탁테이블</t>
         </is>
       </c>
     </row>
